--- a/data/trans_camb/P16B05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -611,22 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 11,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 7,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 7,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 5,43</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 12,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 8,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 8,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 5,86</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,66; 40,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 34,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 18,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 16,33</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 69,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 58,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 20,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 22,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 20,12</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-11,49</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 26,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-21,61; 13,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-30,69; 0,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 6,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,57; 6,93</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,61%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 35,45</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 15,32</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-30,69; 0,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,41; 6,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; 7,19</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 13,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 9,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 8,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 8,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 8,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 7,11</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 15,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 11,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 9,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 9,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 9,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 7,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B05-Estudios-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 11,1</t>
+          <t>2,49; 10,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 7,91</t>
+          <t>-2,41; 7,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,91</t>
+          <t>1,68; 9,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,43</t>
+          <t>-2,46; 5,78</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 12,49</t>
+          <t>2,56; 12,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,72</t>
+          <t>-2,46; 8,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 8,59</t>
+          <t>1,71; 9,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 5,86</t>
+          <t>-2,48; 6,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 40,55</t>
+          <t>2,27; 37,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 34,25</t>
+          <t>-2,84; 33,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 17,0</t>
+          <t>1,47; 17,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,14</t>
+          <t>0,1; 15,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 18,14</t>
+          <t>3,6; 19,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 16,33</t>
+          <t>0,99; 15,36</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 69,52</t>
+          <t>2,29; 59,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 58,54</t>
+          <t>-3,06; 53,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 20,47</t>
+          <t>1,5; 20,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,93</t>
+          <t>0,11; 18,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 22,35</t>
+          <t>3,74; 23,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 20,12</t>
+          <t>1,06; 18,63</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,18</t>
+          <t>0,0; 35,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 13,27</t>
+          <t>-22,15; 13,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 0,0</t>
+          <t>-32,28; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 6,36</t>
+          <t>-15,95; 6,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 6,93</t>
+          <t>-11,95; 6,33</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,45</t>
+          <t>0,0; 53,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 15,32</t>
+          <t>-22,86; 15,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 0,0</t>
+          <t>-32,28; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 6,79</t>
+          <t>-16,85; 6,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 7,19</t>
+          <t>-12,35; 6,76</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,32</t>
+          <t>0,97; 13,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,78</t>
+          <t>-3,54; 10,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,87</t>
+          <t>1,3; 8,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 8,34</t>
+          <t>0,1; 7,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,82</t>
+          <t>2,36; 8,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,11</t>
+          <t>-0,13; 6,97</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,02; 15,47</t>
+          <t>0,8; 15,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 11,17</t>
+          <t>-3,68; 11,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,77</t>
+          <t>1,36; 9,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,48; 9,19</t>
+          <t>0,1; 8,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,67</t>
+          <t>2,44; 9,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,09; 7,8</t>
+          <t>-0,13; 7,67</t>
         </is>
       </c>
     </row>
